--- a/front-end/src/dummyData.xlsx
+++ b/front-end/src/dummyData.xlsx
@@ -8,20 +8,140 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wina/광운대학교/졸업작품/개인코드/test/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFAD5F3-0C73-784A-AF74-FC244DC667FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7FD6CA-D9F9-714A-B3CA-5D51796993F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38980" yWindow="1920" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14280" yWindow="4860" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트 1 - 005930 과거 데이터" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="엑셀데이터" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="8">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="27"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="8">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>고가</t>
   </si>
@@ -165,18 +285,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>close</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>open</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -186,6 +294,50 @@
   </si>
   <si>
     <t>시가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테슬라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크로소프트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알파벳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>넷플릭스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오뱅크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +345,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -218,6 +373,19 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -359,7 +527,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -404,6 +572,18 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,6 +668,1134 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_imageurl">
+      <keyFlags>
+        <key name="Blip Identifier">
+          <flag name="ShowInCardView" value="0"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="28">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a24kar&amp;q=XNAS%3aTSLA&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>TESLA, INC. (XNAS:TSLA)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en</v>
+    <v>a24kar</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>299.29000000000002</v>
+    <v>152.37</v>
+    <v>2.4270999999999998</v>
+    <v>-4.3</v>
+    <v>-2.2444000000000002E-2</v>
+    <v>USD</v>
+    <v>Tesla, Inc. designs, develops, manufactures, sells and leases high-performance fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's segments include automotive, and energy generation and storage. The automotive segment includes the design, development, manufacturing, sales and leasing of high-performance fully electric vehicles, and sales of automotive regulatory credits. This segment also includes sales of used vehicles, non-warranty after-sales vehicle services, body shop and parts, paid supercharging, vehicle insurance and retail merchandise. Its consumer vehicles include the Model 3, Y, S, X and Cybertruck. The energy generation and storage segment includes the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its lithium-ion battery energy storage products include Powerwall and Megapack.</v>
+    <v>140473</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
+    <v>193.97</v>
+    <v>Automobiles &amp; Auto Parts</v>
+    <v>Stock</v>
+    <v>45323.041663356249</v>
+    <v>0</v>
+    <v>185.8459</v>
+    <v>595380114090</v>
+    <v>TESLA, INC.</v>
+    <v>TESLA, INC.</v>
+    <v>186.995</v>
+    <v>43.556199999999997</v>
+    <v>191.59</v>
+    <v>187.29</v>
+    <v>3184791000</v>
+    <v>TSLA</v>
+    <v>TESLA, INC. (XNAS:TSLA)</v>
+    <v>351096</v>
+    <v>110084479</v>
+    <v>2003</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1mou2&amp;q=XNAS%3aAAPL&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>APPLE INC. (XNAS:AAPL)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en</v>
+    <v>a1mou2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>199.62</v>
+    <v>141.32</v>
+    <v>1.3125</v>
+    <v>-3.64</v>
+    <v>-1.9358E-2</v>
+    <v>USD</v>
+    <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. The Company's product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. It operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+ and Apple TV+. The Company's products include iPhone 15 Pro, iPhone 15, iPhone 14, iPhone 13, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, iPad Pro, iPad Air, iPad, iPad mini, Apple Watch Series 9, AirPods, AirPods Pro, AirPods Max and HomePod.</v>
+    <v>161000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
+    <v>187.095</v>
+    <v>Computers, Phones &amp; Household Electronics</v>
+    <v>Stock</v>
+    <v>45323.041642094533</v>
+    <v>3</v>
+    <v>184.35</v>
+    <v>2851174360000</v>
+    <v>APPLE INC.</v>
+    <v>APPLE INC.</v>
+    <v>187.04</v>
+    <v>30.061699999999998</v>
+    <v>188.04</v>
+    <v>184.4</v>
+    <v>15461900000</v>
+    <v>AAPL</v>
+    <v>APPLE INC. (XNAS:AAPL)</v>
+    <v>111389</v>
+    <v>53648787</v>
+    <v>1977</v>
+  </rv>
+  <rv s="2">
+    <v>4</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Public_domain</v>
+    <v>Public domain</v>
+  </rv>
+  <rv s="0">
+    <v>https://en.wikipedia.org/wiki/Microsoft</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="3">
+    <v>6</v>
+    <v>7</v>
+  </rv>
+  <rv s="4">
+    <v>9</v>
+    <v>https://www.bing.com/th?id=AMMS_e6e837c7bf3a77408619758b7447855a&amp;qlt=95</v>
+    <v>8</v>
+    <v>0</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=microsoft</v>
+    <v>Image of MICROSOFT CORPORATION</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1xzim&amp;q=XNAS%3aMSFT&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>5</v>
+    <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
+    <v>7</v>
+    <v>8</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en</v>
+    <v>a1xzim</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>415.32</v>
+    <v>245.47</v>
+    <v>0.89910000000000001</v>
+    <v>-11.01</v>
+    <v>-2.6945999999999998E-2</v>
+    <v>USD</v>
+    <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, devices, gaming, and search and news advertising.</v>
+    <v>221000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
+    <v>415.32</v>
+    <v>9</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45323.041658344533</v>
+    <v>10</v>
+    <v>397.21</v>
+    <v>2954918725960</v>
+    <v>MICROSOFT CORPORATION</v>
+    <v>MICROSOFT CORPORATION</v>
+    <v>406.96</v>
+    <v>35.957099999999997</v>
+    <v>408.59</v>
+    <v>397.58</v>
+    <v>7430436000</v>
+    <v>MSFT</v>
+    <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
+    <v>152250</v>
+    <v>23565094</v>
+    <v>1993</v>
+  </rv>
+  <rv s="2">
+    <v>11</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1u3p2&amp;q=XNAS%3aGOOG&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>ALPHABET INC. (XNAS:GOOG)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en</v>
+    <v>a1u3p2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>155.19999999999999</v>
+    <v>88.86</v>
+    <v>1.0579000000000001</v>
+    <v>-11.25</v>
+    <v>-7.3505000000000001E-2</v>
+    <v>USD</v>
+    <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides technology in cybersecurity; data, analytics, artificial intelligence (AI), machine learning and infrastructure. The Company's Google Workspace's secure communication and collaboration tools, which include apps, such as Gmail, Docs, Drive, Calendar, Meet, and others.</v>
+    <v>182502</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
+    <v>145.59</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45323.041631053122</v>
+    <v>13</v>
+    <v>141.55000000000001</v>
+    <v>1904776000000</v>
+    <v>ALPHABET INC.</v>
+    <v>ALPHABET INC.</v>
+    <v>145.38999999999999</v>
+    <v>24.438099999999999</v>
+    <v>153.05000000000001</v>
+    <v>141.80000000000001</v>
+    <v>12516000000</v>
+    <v>GOOG</v>
+    <v>ALPHABET INC. (XNAS:GOOG)</v>
+    <v>96397</v>
+    <v>19372930</v>
+    <v>2015</v>
+  </rv>
+  <rv s="2">
+    <v>14</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1slm7&amp;q=XNAS%3aMETA&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>Meta Platforms, Inc. (XNAS:META)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en</v>
+    <v>a1slm7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>406.36</v>
+    <v>147.06</v>
+    <v>1.1544000000000001</v>
+    <v>-9.92</v>
+    <v>-2.4795999999999999E-2</v>
+    <v>USD</v>
+    <v>Meta Platforms, Inc. builds technologies that help people connect, find communities, and grow businesses. The Company's products enable people to connect and share with friends and family through mobile devices, personal computers, virtual reality (VR) headsets, and wearables. The Company operates through two segments: Family of Apps (FoA) and Reality Labs (RL). FoA segment includes Facebook, Instagram, Messenger, WhatsApp, and other services. RL segment includes augmented and VR-related consumer hardware, software, and content. Facebook enables people to connect, share, discover and communicate with each other on mobile devices and personal computers. Instagram is a place where people can express themselves through photos, videos, and private messaging, and connect with and shop from their favorite businesses. Its RL products include Meta Quest virtual reality devices, as well as software and content available through the Meta Quest Store, which enable a range of social experiences.</v>
+    <v>66185</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>1 Meta Way, MENLO PARK, CA, 94025 US</v>
+    <v>398</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45323.041649409373</v>
+    <v>16</v>
+    <v>387.1</v>
+    <v>1028099000000</v>
+    <v>Meta Platforms, Inc.</v>
+    <v>Meta Platforms, Inc.</v>
+    <v>389</v>
+    <v>34.454900000000002</v>
+    <v>400.06</v>
+    <v>390.14</v>
+    <v>2569863000</v>
+    <v>META</v>
+    <v>Meta Platforms, Inc. (XNAS:META)</v>
+    <v>37006</v>
+    <v>15874370</v>
+    <v>2004</v>
+  </rv>
+  <rv s="2">
+    <v>17</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1ygoc&amp;q=XNAS%3aNFLX&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>NETFLIX, INC. (XNAS:NFLX)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en</v>
+    <v>a1ygoc</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>579.64</v>
+    <v>285.33010000000002</v>
+    <v>1.2196</v>
+    <v>1.26</v>
+    <v>2.2389999999999997E-3</v>
+    <v>USD</v>
+    <v>Netflix, Inc. is a provider of entertainment services. The Company acquires, licenses and produces content, including original programming. The Company provides paid memberships in approximately 190 countries offering television (TV) series, films and games across a wide variety of genres and languages. Its members can play, pause and resume watching as much as they want, anytime, anywhere, and can change their plans at any time. The Company offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes and mobile devices. The Company also has agreements with various cable, satellite and telecommunications operators to make its service available through TV set-top boxes. The Company's paid plans range from the United States dollar equivalent of $1 to $28 per month, and pricing on its extra member sub accounts range from the United States dollar equivalent of $2 to $8 per month.</v>
+    <v>13000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
+    <v>572.15</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45323.041593471877</v>
+    <v>19</v>
+    <v>562.04499999999996</v>
+    <v>244124017956</v>
+    <v>NETFLIX, INC.</v>
+    <v>NETFLIX, INC.</v>
+    <v>562.85</v>
+    <v>46.936199999999999</v>
+    <v>562.85</v>
+    <v>564.11</v>
+    <v>432759600</v>
+    <v>NFLX</v>
+    <v>NETFLIX, INC. (XNAS:NFLX)</v>
+    <v>5094</v>
+    <v>6198738</v>
+    <v>1997</v>
+  </rv>
+  <rv s="2">
+    <v>20</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1yjxm&amp;q=XNYS%3aNKE&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>NIKE, INC. (XNYS:NKE)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en</v>
+    <v>a1yjxm</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>131.31</v>
+    <v>88.66</v>
+    <v>1.1095999999999999</v>
+    <v>-2.65</v>
+    <v>-2.5436999999999998E-2</v>
+    <v>USD</v>
+    <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
+    <v>83700</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
+    <v>104.3</v>
+    <v>Textiles &amp; Apparel</v>
+    <v>Stock</v>
+    <v>45323.041492476565</v>
+    <v>22</v>
+    <v>101.12</v>
+    <v>153830336660</v>
+    <v>NIKE, INC.</v>
+    <v>NIKE, INC.</v>
+    <v>104.09</v>
+    <v>29.643899999999999</v>
+    <v>104.18</v>
+    <v>101.53</v>
+    <v>1515122000</v>
+    <v>NKE</v>
+    <v>NIKE, INC. (XNYS:NKE)</v>
+    <v>4447</v>
+    <v>9137872</v>
+    <v>1969</v>
+  </rv>
+  <rv s="2">
+    <v>23</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=c2wb77&amp;q=XKRX%3a323410&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="6">
+    <v>10</v>
+    <v>KakaoBank Corp. (XKRX:323410)</v>
+    <v>2</v>
+    <v>11</v>
+    <v>Finance</v>
+    <v>12</v>
+    <v>en</v>
+    <v>c2wb77</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>31500</v>
+    <v>17970</v>
+    <v>-450</v>
+    <v>-1.6484000000000002E-2</v>
+    <v>KRW</v>
+    <v>KakaoBank Corp is a Korea-based company principally engaged in the Internet banking business. The Company operates its business into two segments. The Banking Business Segment is engaged in the provision of deposit, loan, foreign currency remittance and payment settlement services. The Platform Business is engaged in the provision of stock accounts opening, loans from affiliates recommending and affiliated credit cards services.</v>
+    <v>1506</v>
+    <v>Korea Stock Exchange</v>
+    <v>XKRX</v>
+    <v>XKRX</v>
+    <v>5F, S Dong, H Square, 231, Pangyoyeok-ro, Bundang-gu, SEONGNAM, GYEONGGI-DO, 13494 KR</v>
+    <v>27250</v>
+    <v>Banking Services</v>
+    <v>Stock</v>
+    <v>45323.378472222219</v>
+    <v>25</v>
+    <v>26500</v>
+    <v>13161670000000</v>
+    <v>KakaoBank Corp.</v>
+    <v>KakaoBank Corp.</v>
+    <v>26800</v>
+    <v>49.37</v>
+    <v>27300</v>
+    <v>26850</v>
+    <v>476872100</v>
+    <v>323410</v>
+    <v>KakaoBank Corp. (XKRX:323410)</v>
+    <v>1081930</v>
+    <v>1140460</v>
+    <v>2016</v>
+  </rv>
+  <rv s="2">
+    <v>26</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+  <s t="_sourceattribution">
+    <k n="License" t="r"/>
+    <k n="Source" t="r"/>
+  </s>
+  <s t="_imageurl">
+    <k n="_Provider" t="spb"/>
+    <k n="Address" t="s"/>
+    <k n="Attribution" t="r"/>
+    <k n="ComputedImage" t="b"/>
+    <k n="More Images Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Image" t="r"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="3">
+    <a count="42">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+    <a count="43">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+    <a count="41">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="13">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+    </spb>
+    <spb s="4">
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>GMT</v>
+    </spb>
+    <spb s="0">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="5">
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="6">
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="7">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>10</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+    </spb>
+    <spb s="8">
+      <v>Powered by Refinitiv</v>
+    </spb>
+    <spb s="0">
+      <v>2</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="9">
+      <v>11</v>
+      <v>2</v>
+      <v>11</v>
+      <v>3</v>
+      <v>11</v>
+      <v>11</v>
+      <v>11</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>12</v>
+      <v>11</v>
+      <v>11</v>
+      <v>11</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+    </spb>
+    <spb s="4">
+      <v>Delayed 20 minutes</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>KSE</v>
+      <v>GMT</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="10">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="Image" t="spb"/>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Image" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="5">
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="yyyy/m/d\ hh:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+    <rPr n="IsHeroField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="0">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0.00_);[Red](#,##0.00)</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="3">
+      <rpv i="0">#,##0_);[Red](#,##0)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="0">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="1"/>
+    <rSty dxfid="0">
+      <rpv i="0">0_);[Red](0)</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00_);[Red](0.00)</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="2">1</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">_([$₩-ko-KR]* #,##0.00_);_([$₩-ko-KR]* (#,##0.00);_([$₩-ko-KR]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">_([$₩-ko-KR]* #,##0_);_([$₩-ko-KR]* (#,##0);_([$₩-ko-KR]* "-"_);_(@_)</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1537,8 +2845,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -1554,13 +2862,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="29" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -2131,287 +3439,153 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6844512C-3562-4F4E-BFC4-C4699D2CBAC7}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>49</v>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" s="15"/>
+      <c r="B1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4">
-        <v>73700</v>
-      </c>
-      <c r="C2" s="5">
-        <v>75200</v>
-      </c>
+    <row r="2" spans="1:5" ht="28">
+      <c r="A2" s="15" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="18" cm="1">
+        <f t="array" ref="C2">_FV(A2,"Price")</f>
+        <v>187.29</v>
+      </c>
+      <c r="D2" s="18" cm="1">
+        <f t="array" ref="D2">_FV(A2,"Change (%)",TRUE)</f>
+        <v>-2.2444000000000002E-2</v>
+      </c>
+      <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9">
-        <v>75200</v>
-      </c>
-      <c r="C3" s="10">
-        <v>75700</v>
+    <row r="3" spans="1:5" ht="28">
+      <c r="A3" s="15" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="18" cm="1">
+        <f t="array" ref="C3">_FV(A3,"Price")</f>
+        <v>184.4</v>
+      </c>
+      <c r="D3" s="18" cm="1">
+        <f t="array" ref="D3">_FV(A3,"Change (%)",TRUE)</f>
+        <v>-1.9358E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9">
-        <v>75100</v>
-      </c>
-      <c r="C4" s="10">
-        <v>75900</v>
+    <row r="4" spans="1:5" ht="56">
+      <c r="A4" s="15" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="18" cm="1">
+        <f t="array" ref="C4">_FV(A4,"Price")</f>
+        <v>397.58</v>
+      </c>
+      <c r="D4" s="18" cm="1">
+        <f t="array" ref="D4">_FV(A4,"Change (%)",TRUE)</f>
+        <v>-2.6945999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9">
-        <v>74700</v>
-      </c>
-      <c r="C5" s="10">
-        <v>74700</v>
+    <row r="5" spans="1:5" ht="42">
+      <c r="A5" s="15" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="18" cm="1">
+        <f t="array" ref="C5">_FV(A5,"Price")</f>
+        <v>141.80000000000001</v>
+      </c>
+      <c r="D5" s="18" cm="1">
+        <f t="array" ref="D5">_FV(A5,"Change (%)",TRUE)</f>
+        <v>-7.3505000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9">
-        <v>74700</v>
-      </c>
-      <c r="C6" s="10">
-        <v>73500</v>
+    <row r="6" spans="1:5" ht="42">
+      <c r="A6" s="15" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="18" cm="1">
+        <f t="array" ref="C6">_FV(A6,"Price")</f>
+        <v>390.14</v>
+      </c>
+      <c r="D6" s="18" cm="1">
+        <f t="array" ref="D6">_FV(A6,"Change (%)",TRUE)</f>
+        <v>-2.4795999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="9">
-        <v>71700</v>
-      </c>
-      <c r="C7" s="10">
-        <v>71600</v>
+    <row r="7" spans="1:5" ht="28">
+      <c r="A7" s="15" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="18" cm="1">
+        <f t="array" ref="C7">_FV(A7,"Price")</f>
+        <v>564.11</v>
+      </c>
+      <c r="D7" s="18" cm="1">
+        <f t="array" ref="D7">_FV(A7,"Change (%)",TRUE)</f>
+        <v>2.2389999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9">
-        <v>71000</v>
-      </c>
-      <c r="C8" s="10">
-        <v>73100</v>
+    <row r="8" spans="1:5" ht="28">
+      <c r="A8" s="15" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="18" cm="1">
+        <f t="array" ref="C8">_FV(A8,"Price")</f>
+        <v>101.53</v>
+      </c>
+      <c r="D8" s="18" cm="1">
+        <f t="array" ref="D8">_FV(A8,"Change (%)",TRUE)</f>
+        <v>-2.5436999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="9">
-        <v>72600</v>
-      </c>
-      <c r="C9" s="10">
-        <v>73500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="9">
-        <v>73900</v>
-      </c>
-      <c r="C10" s="10">
-        <v>73200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="9">
-        <v>73100</v>
-      </c>
-      <c r="C11" s="10">
-        <v>73100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="9">
-        <v>73100</v>
-      </c>
-      <c r="C12" s="10">
-        <v>73000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="9">
-        <v>73200</v>
-      </c>
-      <c r="C13" s="10">
-        <v>73000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="9">
-        <v>73600</v>
-      </c>
-      <c r="C14" s="10">
-        <v>74900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="9">
-        <v>74700</v>
-      </c>
-      <c r="C15" s="10">
-        <v>77400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="9">
-        <v>76500</v>
-      </c>
-      <c r="C16" s="10">
-        <v>76900</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="9">
-        <v>76600</v>
-      </c>
-      <c r="C17" s="10">
-        <v>76600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="9">
-        <v>76600</v>
-      </c>
-      <c r="C18" s="10">
-        <v>76700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="9">
-        <v>76600</v>
-      </c>
-      <c r="C19" s="10">
-        <v>76400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="9">
-        <v>77000</v>
-      </c>
-      <c r="C20" s="10">
-        <v>78600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="9">
-        <v>79600</v>
-      </c>
-      <c r="C21" s="10">
-        <v>78500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="9">
-        <v>78500</v>
-      </c>
-      <c r="C22" s="10">
-        <v>77700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="9">
-        <v>78000</v>
-      </c>
-      <c r="C23" s="10">
-        <v>76700</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="9">
-        <v>76600</v>
-      </c>
-      <c r="C24" s="10">
-        <v>76000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="9">
-        <v>75900</v>
-      </c>
-      <c r="C25" s="10">
-        <v>75900</v>
+    <row r="9" spans="1:5" ht="56">
+      <c r="A9" s="15" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="18" cm="1">
+        <f t="array" ref="C9">_FV(A9,"Price")</f>
+        <v>26850</v>
+      </c>
+      <c r="D9" s="18" cm="1">
+        <f t="array" ref="D9">_FV(A9,"Change (%)",TRUE)</f>
+        <v>-1.6484000000000002E-2</v>
       </c>
     </row>
   </sheetData>
